--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Data_Mining\DM_Techniques\Assignment_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14436" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -40,12 +45,18 @@
   </si>
   <si>
     <t>Recommender systems reading</t>
+  </si>
+  <si>
+    <t>25.4.</t>
+  </si>
+  <si>
+    <t>Tomas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -106,6 +117,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,22 +453,22 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -460,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,62 +490,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Data_Mining\DM_Techniques\Assignment_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell2015\OneDrive\Disc C\Windows\college\Masters\DMT\DM_Techniques\Assignment_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_47D24048FC2AABE8125454DEC4CBCA490C123FC4" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A68BE940-9DE9-4883-BB2B-8DED23DBAC7D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14436" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="14430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -51,12 +52,21 @@
   </si>
   <si>
     <t>Tomas</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Tharangni</t>
+  </si>
+  <si>
+    <t>EDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -107,10 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,26 +460,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -479,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -490,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -501,57 +512,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell2015\OneDrive\Disc C\Windows\college\Masters\DMT\DM_Techniques\Assignment_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_47D24048FC2AABE8125454DEC4CBCA490C123FC4" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A68BE940-9DE9-4883-BB2B-8DED23DBAC7D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="14430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -39,38 +33,54 @@
     <t>What</t>
   </si>
   <si>
-    <t>30th April</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kishan </t>
   </si>
   <si>
     <t>Recommender systems reading</t>
   </si>
   <si>
-    <t>25.4.</t>
-  </si>
-  <si>
     <t>Tomas</t>
   </si>
   <si>
-    <t>01/05/2018</t>
-  </si>
-  <si>
     <t>Tharangni</t>
   </si>
   <si>
     <t>EDA</t>
+  </si>
+  <si>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>EDA, Evaluation function</t>
+  </si>
+  <si>
+    <t>Benchmark Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,8 +124,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -123,7 +135,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,26 +474,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -490,91 +504,104 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" s="3">
+        <v>43220</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3">
+        <v>43215</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3">
+        <v>43221</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3">
+        <v>43222</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="3">
+        <v>43226</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell2015\OneDrive\Disc C\Windows\college\Masters\DMT\DM_Techniques\Assignment_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_26619C3C5551576C630868C7FEE98B47D8342989" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{056E3F76-11D8-4866-A589-10186522CC54}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="25605" windowHeight="14475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -55,12 +61,15 @@
   </si>
   <si>
     <t>Benchmark Model</t>
+  </si>
+  <si>
+    <t>Preprocess - interpolate Null in orig_destination_distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -474,26 +483,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -504,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>43220</v>
       </c>
@@ -515,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>43215</v>
       </c>
@@ -526,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>43221</v>
       </c>
@@ -537,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>43222</v>
       </c>
@@ -548,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>43226</v>
       </c>
@@ -559,42 +568,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>40316</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Benchmark Model</t>
+  </si>
+  <si>
+    <t>RandomForest Model</t>
+  </si>
+  <si>
+    <t>Preprocessing Missing Values</t>
+  </si>
+  <si>
+    <t>Kishan&amp; Tharangni</t>
   </si>
 </sst>
 </file>
@@ -124,8 +133,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -135,9 +148,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,13 +495,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,14 +577,26 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3">
+        <v>43227</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3">
+        <v>43230</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1"/>

--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell2015\OneDrive\Disc C\Windows\college\Masters\DMT\DM_Techniques\Assignment_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_26619C3C5551576C630868C7FEE98B47D8342989" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{056E3F76-11D8-4866-A589-10186522CC54}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25605" windowHeight="14475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -64,12 +58,21 @@
   </si>
   <si>
     <t>Preprocess - interpolate Null in orig_destination_distance</t>
+  </si>
+  <si>
+    <t>RandomForest Model</t>
+  </si>
+  <si>
+    <t>Kishan&amp; Tharangni</t>
+  </si>
+  <si>
+    <t>Preprocessing Missing Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -483,26 +486,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" s="3">
         <v>43220</v>
       </c>
@@ -524,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" s="3">
         <v>43215</v>
       </c>
@@ -535,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" s="3">
         <v>43221</v>
       </c>
@@ -546,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" s="3">
         <v>43222</v>
       </c>
@@ -557,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="3">
         <v>43226</v>
       </c>
@@ -568,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="3">
         <v>40316</v>
       </c>
@@ -579,37 +582,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
+      <c r="B10" s="3">
+        <v>43227</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="3">
+        <v>43230</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Recommender systems reading</t>
   </si>
   <si>
-    <t>Tomas</t>
-  </si>
-  <si>
     <t>Tharangni</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Kishan</t>
   </si>
   <si>
-    <t>EDA, Evaluation function</t>
-  </si>
-  <si>
     <t>Benchmark Model</t>
   </si>
   <si>
@@ -63,10 +57,31 @@
     <t>RandomForest Model</t>
   </si>
   <si>
-    <t>Kishan&amp; Tharangni</t>
-  </si>
-  <si>
     <t>Preprocessing Missing Values</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Start working on the report</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Finishing EDA</t>
+  </si>
+  <si>
+    <t>Finishing EDA, Evaluation function</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning</t>
+  </si>
+  <si>
+    <t>Kishan &amp; Thomas</t>
+  </si>
+  <si>
+    <t>Kishan &amp; Tharangni</t>
   </si>
 </sst>
 </file>
@@ -136,8 +151,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -147,9 +176,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -521,7 +564,7 @@
         <v>43220</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -532,10 +575,10 @@
         <v>43215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -543,10 +586,10 @@
         <v>43221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -557,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -565,10 +608,10 @@
         <v>43226</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -576,10 +619,10 @@
         <v>40316</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -587,10 +630,10 @@
         <v>43227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -598,26 +641,44 @@
         <v>43230</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="3">
+        <v>43240</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3">
+        <v>43240</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1"/>
@@ -628,6 +689,11 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assignment_2/Workplan.xlsx
+++ b/Assignment_2/Workplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Schedule for report</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Kishan &amp; Tharangni</t>
+  </si>
+  <si>
+    <t>GradientBoosting Model</t>
+  </si>
+  <si>
+    <t>Finishing report</t>
   </si>
 </sst>
 </file>
@@ -151,8 +157,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -176,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -185,6 +193,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -193,6 +202,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -638,35 +648,35 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3">
-        <v>43230</v>
+        <v>43228</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="3">
-        <v>43235</v>
+        <v>43230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3">
-        <v>43240</v>
+        <v>43235</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -674,26 +684,43 @@
         <v>43240</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="3">
+        <v>43240</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="3">
+        <v>43244</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
